--- a/doc/log/牛品.xlsx
+++ b/doc/log/牛品.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="93">
   <si>
     <t>姓名：牛品</t>
   </si>
@@ -25,19 +25,274 @@
     <t>工作内容</t>
   </si>
   <si>
+    <t>2019/4/1/9:00-10:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">完善demo和sun-web以及sun-server，创建日志。 </t>
   </si>
   <si>
+    <t>2019/4/9/12:00-14:00</t>
+  </si>
+  <si>
     <t>简单了解JavaEE JDBC的相关概念，和其简单的使用</t>
   </si>
   <si>
+    <t>2019/4/10/20：00-22：00</t>
+  </si>
+  <si>
     <t>下载MySQL，并且熟悉其基本操作过程</t>
   </si>
   <si>
     <t>讨论组决定的项目，确定实体和研发的方向</t>
   </si>
   <si>
+    <t>2019/4/11/20：00-22：00</t>
+  </si>
+  <si>
     <t>学习反射相关概念和具体操作</t>
+  </si>
+  <si>
+    <t>2019/4/13/20：00-22：00</t>
+  </si>
+  <si>
+    <t>log4i的学习</t>
+  </si>
+  <si>
+    <t>2019/4/13 20:00-22:00</t>
+  </si>
+  <si>
+    <t>学习使用MySQl的一些命令，和具体操作</t>
+  </si>
+  <si>
+    <t>2019/4/14 20:00-22:00</t>
+  </si>
+  <si>
+    <t>学习mysql中的多数据处理</t>
+  </si>
+  <si>
+    <t>2019/4/15 20:00-22:00</t>
+  </si>
+  <si>
+    <t>学习spring-data-jpa</t>
+  </si>
+  <si>
+    <t>2019/4/16/18:00 -22:00</t>
+  </si>
+  <si>
+    <t>配置日志输出</t>
+  </si>
+  <si>
+    <t>了解web前端的相关知识</t>
+  </si>
+  <si>
+    <t>2019/4/18/15:00 - 18:00</t>
+  </si>
+  <si>
+    <t>学习JDBC的一些具体的实现操作</t>
+  </si>
+  <si>
+    <t>2019/4/20 20:00-22:00</t>
+  </si>
+  <si>
+    <t>了解Http协议</t>
+  </si>
+  <si>
+    <t>2019/4/21 20:00-22:00</t>
+  </si>
+  <si>
+    <t>引入mybatis-3和mybatis-spring的依赖包</t>
+  </si>
+  <si>
+    <t>2019/4/22 20:00-22:00</t>
+  </si>
+  <si>
+    <t>配置eclipse中的spring应用上下文</t>
+  </si>
+  <si>
+    <t>2019/4/25 20:00-22:00</t>
+  </si>
+  <si>
+    <t>web层的搭建，基础整合spring-MVC</t>
+  </si>
+  <si>
+    <t>2019/4/27 20:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">项目运行出现错误，重构项目                                                                    </t>
+  </si>
+  <si>
+    <t>2019/4/29 20:00-22:00</t>
+  </si>
+  <si>
+    <t>学习jquery-ajax</t>
+  </si>
+  <si>
+    <t>2019/5/1 20:00-22:00</t>
+  </si>
+  <si>
+    <t>MySQL数据库的基本命令的学习和操作</t>
+  </si>
+  <si>
+    <t>2019/5/2 20:00-22:00</t>
+  </si>
+  <si>
+    <t>MySQL数据索引的学习</t>
+  </si>
+  <si>
+    <t>2019/5/5 20:00-22:00</t>
+  </si>
+  <si>
+    <t>JDBC的基本概念学习</t>
+  </si>
+  <si>
+    <t>2019/5/6 20:00-22:00</t>
+  </si>
+  <si>
+    <t>MYSQL,JDBC的复习</t>
+  </si>
+  <si>
+    <t>2019/5/8 20:00-22:00</t>
+  </si>
+  <si>
+    <t>springMVC环境搭建及案例入门</t>
+  </si>
+  <si>
+    <t>2019/5/10 20:00-22:00</t>
+  </si>
+  <si>
+    <t>编写dao层实体测试IndentTest</t>
+  </si>
+  <si>
+    <t>2019/5/13 20:30-22:30</t>
+  </si>
+  <si>
+    <t>HTTP请求方法，协议的八种类型</t>
+  </si>
+  <si>
+    <t>2019/5/14 20:30-22:30</t>
+  </si>
+  <si>
+    <t>web层基础配置</t>
+  </si>
+  <si>
+    <t>2019/5/15 20:30-22:31</t>
+  </si>
+  <si>
+    <t>配置spring的应用上下文</t>
+  </si>
+  <si>
+    <t>2019/5/17 20:30-22:31</t>
+  </si>
+  <si>
+    <t>2019/5/19 20:30-22:31</t>
+  </si>
+  <si>
+    <t>初步了解Vue</t>
+  </si>
+  <si>
+    <t>2019/5/22 20:30-22:31</t>
+  </si>
+  <si>
+    <t>Vue.js模板起步</t>
+  </si>
+  <si>
+    <t>2019/5/24 20:30-22:31</t>
+  </si>
+  <si>
+    <t>account模块一对多关系</t>
+  </si>
+  <si>
+    <t>2019/5/26 20:30-22:31</t>
+  </si>
+  <si>
+    <t>接口测试</t>
+  </si>
+  <si>
+    <t>2019/5/30 20:30-22:31</t>
+  </si>
+  <si>
+    <t>调用接口实现增加删除修改功能</t>
+  </si>
+  <si>
+    <t>2019/6/1 20:30-22:31</t>
+  </si>
+  <si>
+    <t>完善接口</t>
+  </si>
+  <si>
+    <t>2019/6/2 20:30-22:31</t>
+  </si>
+  <si>
+    <t>client更新编辑功能</t>
+  </si>
+  <si>
+    <t>2019/6/3 20:30-22:31</t>
+  </si>
+  <si>
+    <t>测试功能的实现</t>
+  </si>
+  <si>
+    <t>2019/6/5 20:30-22:31</t>
+  </si>
+  <si>
+    <t>添加测试数据</t>
+  </si>
+  <si>
+    <t>2019/6/6 20:30-22:31</t>
+  </si>
+  <si>
+    <t>实现json展示</t>
+  </si>
+  <si>
+    <t>2019/6/7 20:30-22:31</t>
+  </si>
+  <si>
+    <t>写web层dish的js</t>
+  </si>
+  <si>
+    <t>2019/6/9 20:30-22:31</t>
+  </si>
+  <si>
+    <t>2019/6/10 20:30-22:31</t>
+  </si>
+  <si>
+    <t>2019/6/11 20:30-22:31</t>
+  </si>
+  <si>
+    <t>2019/6/13 20:30-22:31</t>
+  </si>
+  <si>
+    <t>2019/6/14 20:30-22:31</t>
+  </si>
+  <si>
+    <t>2019/6/16 20:30-22:31</t>
+  </si>
+  <si>
+    <t>2019/6/17 20:30-22:31</t>
+  </si>
+  <si>
+    <t>2019/6/18 20:30-22:31</t>
+  </si>
+  <si>
+    <t>2019/6/19 20:30-21:30</t>
+  </si>
+  <si>
+    <t>2019/6/20 21:00-22:00</t>
+  </si>
+  <si>
+    <t>界面测试</t>
+  </si>
+  <si>
+    <t>2019/6/21 21:00-23:00</t>
+  </si>
+  <si>
+    <t>功能模块测试</t>
+  </si>
+  <si>
+    <t>2019/6/23 20:00-22:00</t>
+  </si>
+  <si>
+    <t>测试报告</t>
   </si>
 </sst>
 </file>
@@ -47,10 +302,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +314,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -67,7 +334,98 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,52 +439,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,9 +449,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,61 +462,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -212,13 +472,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,13 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,61 +622,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,85 +652,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,6 +663,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -430,24 +723,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -459,6 +734,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,32 +763,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -511,10 +771,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,147 +783,177 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,17 +1275,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="57.25" customWidth="1"/>
+    <col min="2" max="2" width="24.4833333333333" customWidth="1"/>
+    <col min="3" max="3" width="44.125" customWidth="1"/>
+    <col min="4" max="4" width="3.81666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1009,53 +1300,570 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="2">
-        <v>43556</v>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="2">
-        <v>43557</v>
-      </c>
-      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="2">
-        <v>43558</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="2">
-        <v>43559</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="2">
-        <v>43562</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2">
-        <v>43570</v>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:3">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:3">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:3">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:3">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:3">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:3">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:3">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:3">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:3">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:3">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:3">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:3">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:3">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:3">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:3">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:3">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="1:3">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="1:3">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:3">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="1:3">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>